--- a/ImaZipperProto/DapperSample/BleachData.xlsx
+++ b/ImaZipperProto/DapperSample/BleachData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="290">
   <si>
     <t>黒崎一護</t>
     <phoneticPr fontId="1"/>
@@ -1137,16 +1137,6 @@
     <t>誕生日</t>
     <rPh sb="0" eb="3">
       <t>タンジョウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>推定年齢</t>
-    <rPh sb="0" eb="2">
-      <t>スイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ネンレイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4255,10 +4245,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4266,7 +4256,7 @@
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>253</v>
       </c>
@@ -4285,11 +4275,8 @@
       <c r="F1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4303,16 +4290,13 @@
         <v>256</v>
       </c>
       <c r="E2" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4326,16 +4310,13 @@
         <v>259</v>
       </c>
       <c r="E3" s="3">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3">
-        <v>13</v>
-      </c>
-      <c r="G3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4349,16 +4330,13 @@
         <v>262</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4372,16 +4350,13 @@
         <v>266</v>
       </c>
       <c r="E5" s="3">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4395,16 +4370,13 @@
         <v>269</v>
       </c>
       <c r="E6" s="3">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4418,16 +4390,13 @@
         <v>272</v>
       </c>
       <c r="E7" s="3">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4441,16 +4410,13 @@
         <v>275</v>
       </c>
       <c r="E8" s="3">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F8" s="3">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4464,16 +4430,13 @@
         <v>278</v>
       </c>
       <c r="E9" s="3">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:6">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4487,16 +4450,13 @@
         <v>281</v>
       </c>
       <c r="E10" s="3">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3">
         <v>16</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:6">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4510,12 +4470,9 @@
         <v>284</v>
       </c>
       <c r="E11" s="3">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
         <v>6</v>
       </c>
     </row>

--- a/ImaZipperProto/DapperSample/BleachData.xlsx
+++ b/ImaZipperProto/DapperSample/BleachData.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="28035" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="斬魄刀" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="キャラクター" sheetId="1" r:id="rId1"/>
+    <sheet name="組織" sheetId="5" r:id="rId2"/>
+    <sheet name="斬魄刀" sheetId="2" r:id="rId3"/>
+    <sheet name="卍解技" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="309">
   <si>
     <t>黒崎一護</t>
     <phoneticPr fontId="1"/>
@@ -1152,6 +1153,82 @@
     <rPh sb="0" eb="3">
       <t>ザンパクトウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麒麟寺 天示郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きりんじ てんじろう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金毘迦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白骨地獄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血の池地獄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二枚屋 王悦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>にまいや おうえつ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鞘伏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三官 西方神将</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修多羅 千手丸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゅたら せんじゅまる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第四官 北方神将</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵主部 一兵衛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひょうすべ いちべえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しら筆一文字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不転太殺陵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千里通天掌</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曳舟 桐生</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1549,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3110,277 +3187,261 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44044</v>
       </c>
       <c r="D44" t="s">
         <v>30</v>
       </c>
-      <c r="F44" t="s">
-        <v>216</v>
-      </c>
-      <c r="G44" t="s">
-        <v>217</v>
+      <c r="E44" t="s">
+        <v>220</v>
       </c>
       <c r="J44" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K44" t="s">
-        <v>215</v>
+        <v>219</v>
+      </c>
+      <c r="L44" s="1">
+        <v>44044</v>
       </c>
       <c r="M44">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N44">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="O44">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C45" s="1">
-        <v>44044</v>
+        <v>44186</v>
       </c>
       <c r="D45" t="s">
         <v>30</v>
       </c>
       <c r="E45" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J45" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K45" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L45" s="1">
-        <v>44044</v>
+        <v>44186</v>
       </c>
       <c r="M45">
+        <v>38</v>
+      </c>
+      <c r="N45">
         <v>17</v>
       </c>
-      <c r="N45">
-        <v>15</v>
-      </c>
       <c r="O45">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C46" s="1">
-        <v>44186</v>
+        <v>44131</v>
       </c>
       <c r="D46" t="s">
         <v>30</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="J46" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K46" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L46" s="1">
-        <v>44186</v>
+        <v>44131</v>
       </c>
       <c r="M46">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>17</v>
       </c>
-      <c r="O46">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" t="s">
-        <v>224</v>
-      </c>
-      <c r="B47" t="s">
-        <v>225</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44131</v>
-      </c>
-      <c r="D47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" t="s">
-        <v>226</v>
-      </c>
-      <c r="J47" t="s">
-        <v>224</v>
-      </c>
-      <c r="K47" t="s">
-        <v>225</v>
-      </c>
-      <c r="L47" s="1">
-        <v>44131</v>
-      </c>
-      <c r="M47">
-        <v>27</v>
-      </c>
-      <c r="N47">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B50" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" t="s">
+        <v>292</v>
+      </c>
+      <c r="F50" t="s">
+        <v>216</v>
+      </c>
+      <c r="J50" t="s">
+        <v>290</v>
+      </c>
+      <c r="K50" t="s">
+        <v>291</v>
+      </c>
+      <c r="M50">
+        <v>45</v>
+      </c>
+      <c r="N50">
+        <v>14</v>
+      </c>
+      <c r="O50">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>30</v>
+      </c>
+      <c r="F51" t="s">
+        <v>216</v>
+      </c>
+      <c r="G51" t="s">
+        <v>217</v>
+      </c>
+      <c r="J51" t="s">
+        <v>308</v>
+      </c>
+      <c r="K51" t="s">
+        <v>215</v>
+      </c>
+      <c r="M51">
+        <v>43</v>
+      </c>
+      <c r="N51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>295</v>
+      </c>
+      <c r="B52" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" t="s">
+        <v>297</v>
+      </c>
+      <c r="F52" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" t="s">
+        <v>298</v>
+      </c>
+      <c r="J52" t="s">
+        <v>295</v>
+      </c>
+      <c r="K52" t="s">
+        <v>296</v>
+      </c>
+      <c r="M52">
+        <v>40</v>
+      </c>
+      <c r="N52">
+        <v>14</v>
+      </c>
+      <c r="O52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>299</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>2</v>
+        <v>300</v>
+      </c>
+      <c r="D53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" t="s">
+        <v>216</v>
+      </c>
+      <c r="G53" t="s">
+        <v>301</v>
+      </c>
+      <c r="J53" t="s">
+        <v>299</v>
+      </c>
+      <c r="K53" t="s">
+        <v>300</v>
+      </c>
+      <c r="M53">
+        <v>45</v>
+      </c>
+      <c r="N53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>302</v>
       </c>
       <c r="B54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>3</v>
-      </c>
-      <c r="B55" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>4</v>
-      </c>
-      <c r="B56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>6</v>
-      </c>
-      <c r="B58" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>9</v>
-      </c>
-      <c r="B61" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>10</v>
-      </c>
-      <c r="B62" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>11</v>
-      </c>
-      <c r="B63" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>12</v>
-      </c>
-      <c r="B64" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
+        <v>303</v>
+      </c>
+      <c r="D54" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" t="s">
+        <v>304</v>
+      </c>
+      <c r="F54" t="s">
+        <v>216</v>
+      </c>
+      <c r="J54" t="s">
+        <v>302</v>
+      </c>
+      <c r="K54" t="s">
+        <v>303</v>
+      </c>
+      <c r="M54">
+        <v>62</v>
+      </c>
+      <c r="N54">
         <v>14</v>
       </c>
-      <c r="B66" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>16</v>
-      </c>
-      <c r="B68" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>17</v>
-      </c>
-      <c r="B69" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>18</v>
-      </c>
-      <c r="B70" t="s">
-        <v>244</v>
+      <c r="O54">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3394,10 +3455,170 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C37"/>
+      <selection activeCell="F28" sqref="F27:F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3761,18 +3982,45 @@
         <v>87</v>
       </c>
     </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" t="s">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4236,6 +4484,38 @@
         <v>209</v>
       </c>
     </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>304</v>
+      </c>
+      <c r="B60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" t="s">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4243,11 +4523,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
